--- a/Notes/Psychometrics-Scales.xlsx
+++ b/Notes/Psychometrics-Scales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beinhaul\Documents\GitHub\Reliability-Generalizations\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F25A8F-A915-482D-8566-33B645F0AC47}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD26DD7-9086-4F75-B5E7-81A8A27F4341}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="936" yWindow="0" windowWidth="16560" windowHeight="6096" xr2:uid="{54433188-7480-469D-94FA-3C94ADE5C9C2}"/>
+    <workbookView xWindow="1872" yWindow="0" windowWidth="16560" windowHeight="6096" xr2:uid="{54433188-7480-469D-94FA-3C94ADE5C9C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -169,8 +169,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -198,8 +206,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -517,28 +526,28 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>38</v>
       </c>
     </row>
